--- a/src/main/resources/templates/excel/userList.xlsx
+++ b/src/main/resources/templates/excel/userList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">ユーザー一覧</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">ロック状態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">社員ID</t>
   </si>
   <si>
     <t xml:space="preserve">有効フラグ</t>
@@ -361,15 +364,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="4.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,8 +388,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
@@ -415,8 +418,11 @@
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +435,8 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
@@ -442,6 +449,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
@@ -453,22 +461,12 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/templates/excel/userList.xlsx
+++ b/src/main/resources/templates/excel/userList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">ユーザー一覧</t>
   </si>
@@ -57,7 +57,10 @@
     <t xml:space="preserve">ロック状態</t>
   </si>
   <si>
-    <t xml:space="preserve">社員ID</t>
+    <t xml:space="preserve">社員CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">社員名</t>
   </si>
   <si>
     <t xml:space="preserve">有効フラグ</t>
@@ -364,15 +367,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="4.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,6 +392,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -421,8 +425,11 @@
       <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +443,8 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
@@ -450,6 +458,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
@@ -462,11 +471,12 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
